--- a/parent_combos.xlsx
+++ b/parent_combos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>57.14285714285715</v>
+        <v>54.54545454545455</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>14.28571428571429</v>
+        <v>13.63636363636364</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>9.523809523809524</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>4.761904761904762</v>
+        <v>4.545454545454546</v>
       </c>
     </row>
     <row r="6">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>4.761904761904762</v>
+        <v>4.545454545454546</v>
       </c>
     </row>
     <row r="7">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>4.761904761904762</v>
+        <v>4.545454545454546</v>
       </c>
     </row>
     <row r="8">
@@ -592,14 +592,35 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Native</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>4.761904761904762</v>
+        <v>4.545454545454546</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Native</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.545454545454546</v>
       </c>
     </row>
   </sheetData>
